--- a/enteroviruses/family.xlsx
+++ b/enteroviruses/family.xlsx
@@ -966,7 +966,11 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>x</t>
@@ -1065,11 +1069,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yes </t>
-        </is>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
           <t>x</t>
